--- a/data/trans_dic/IP18A01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP18A01-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>11,27%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,56; 9,4</t>
+          <t>0,0; 16,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,92; 12,65</t>
+          <t>2,61; 29,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,18; 12,62</t>
+          <t>0,0; 19,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 15,17</t>
+          <t>0; 26,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,11; 10,25</t>
+          <t>0,0; 19,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,23; 10,38</t>
+          <t>0; 7,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,83; 10,91</t>
+          <t>4,9; 40,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,74; 18,85</t>
+          <t>0; 23,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,41; 8,42</t>
+          <t>0,0; 12,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,78; 10,38</t>
+          <t>1,38; 15,86</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,25; 10,45</t>
+          <t>4,0; 23,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,29; 13,55</t>
+          <t>0; 13,49</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>7,81%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,61; 16,62</t>
+          <t>3,56; 9,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,57; 15,84</t>
+          <t>5,92; 12,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,8; 13,0</t>
+          <t>6,18; 12,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,51</t>
+          <t>2,85; 15,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,89; 15,95</t>
+          <t>4,11; 10,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,01; 17,18</t>
+          <t>4,23; 10,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,45; 15,32</t>
+          <t>4,83; 10,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 20,3</t>
+          <t>2,74; 18,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,48; 14,82</t>
+          <t>4,41; 8,42</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,81; 15,68</t>
+          <t>5,78; 10,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,49; 13,4</t>
+          <t>6,25; 10,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 13,1</t>
+          <t>4,29; 13,55</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,95%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,84</t>
+          <t>6,56; 14,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 29,91</t>
+          <t>5,62; 13,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,59</t>
+          <t>4,83; 12,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>0,0; 6,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,81</t>
+          <t>7,33; 15,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>5,62; 12,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,9; 40,47</t>
+          <t>5,56; 13,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0,0; 18,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,17</t>
+          <t>7,61; 13,39</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,38; 15,86</t>
+          <t>6,44; 11,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,0; 23,42</t>
+          <t>6,01; 11,88</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>0,71; 8,65</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>6,24%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,56; 14,45</t>
+          <t>8,61; 16,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,62; 13,66</t>
+          <t>8,57; 15,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,83; 12,62</t>
+          <t>5,8; 13,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,69</t>
+          <t>0,0; 14,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,33; 15,5</t>
+          <t>7,89; 15,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,62; 12,76</t>
+          <t>9,01; 17,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,56; 13,41</t>
+          <t>7,45; 15,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,68</t>
+          <t>2,64; 20,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,61; 13,39</t>
+          <t>9,48; 14,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,44; 11,9</t>
+          <t>9,81; 15,68</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,01; 11,88</t>
+          <t>7,49; 13,4</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 8,65</t>
+          <t>2,27; 13,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP18A01-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,84</t>
+          <t>0,0; 14,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,61; 29,91</t>
+          <t>2,62; 30,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,59</t>
+          <t>0,0; 20,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,81</t>
+          <t>0,0; 17,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,9; 40,47</t>
+          <t>4,85; 40,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,17</t>
+          <t>0,0; 12,7</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 15,86</t>
+          <t>1,36; 16,93</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,0; 23,42</t>
+          <t>5,09; 23,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 9,55</t>
+          <t>2,36; 9,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,02; 15,44</t>
+          <t>5,96; 15,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,68; 15,63</t>
+          <t>5,91; 15,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,42 +884,42 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,86; 8,08</t>
+          <t>1,88; 8,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,06; 19,1</t>
+          <t>7,95; 19,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,91; 13,67</t>
+          <t>4,7; 14,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,23</t>
+          <t>0,0; 40,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,54; 7,2</t>
+          <t>2,31; 7,12</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,96; 15,39</t>
+          <t>8,07; 15,16</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,26; 12,76</t>
+          <t>6,21; 13,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,47</t>
+          <t>0,0; 15,95</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,56; 9,4</t>
+          <t>3,59; 9,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,92; 12,65</t>
+          <t>5,81; 12,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,18; 12,62</t>
+          <t>5,94; 12,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,85; 15,17</t>
+          <t>3,46; 15,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,11; 10,25</t>
+          <t>4,55; 10,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,23; 10,38</t>
+          <t>4,75; 10,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 10,91</t>
+          <t>5,06; 11,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,74; 18,85</t>
+          <t>2,65; 17,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,41; 8,42</t>
+          <t>4,28; 8,42</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,78; 10,38</t>
+          <t>6,0; 10,79</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,25; 10,45</t>
+          <t>6,26; 10,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,29; 13,55</t>
+          <t>4,22; 13,38</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,56; 14,45</t>
+          <t>6,12; 14,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,62; 13,66</t>
+          <t>5,77; 13,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,83; 12,62</t>
+          <t>4,67; 12,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,69</t>
+          <t>0,0; 7,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,33; 15,5</t>
+          <t>6,6; 15,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,62; 12,76</t>
+          <t>5,48; 13,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,56; 13,41</t>
+          <t>5,7; 13,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,68</t>
+          <t>0,0; 17,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,61; 13,39</t>
+          <t>7,66; 13,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,44; 11,9</t>
+          <t>6,5; 11,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,01; 11,88</t>
+          <t>6,19; 11,53</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 8,65</t>
+          <t>0,73; 9,03</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,61; 16,62</t>
+          <t>9,03; 17,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,57; 15,84</t>
+          <t>8,87; 16,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,8; 13,0</t>
+          <t>5,97; 12,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,51</t>
+          <t>0,0; 15,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,89; 15,95</t>
+          <t>7,8; 15,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,01; 17,18</t>
+          <t>9,27; 17,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,45; 15,32</t>
+          <t>7,53; 15,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 20,3</t>
+          <t>2,66; 21,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,48; 14,82</t>
+          <t>9,33; 14,87</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,81; 15,68</t>
+          <t>9,55; 15,14</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,49; 13,4</t>
+          <t>7,46; 12,82</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,27; 13,1</t>
+          <t>2,5; 14,11</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,59; 10,17</t>
+          <t>6,76; 10,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,26; 12,31</t>
+          <t>8,08; 11,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,86; 10,76</t>
+          <t>7,03; 10,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,15; 7,73</t>
+          <t>1,93; 7,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,81; 10,52</t>
+          <t>6,55; 10,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,98; 11,86</t>
+          <t>7,98; 11,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,76; 11,4</t>
+          <t>7,46; 11,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,58; 12,83</t>
+          <t>3,76; 12,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,2; 9,94</t>
+          <t>7,23; 9,68</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,61; 11,22</t>
+          <t>8,6; 11,23</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,91; 10,46</t>
+          <t>7,69; 10,33</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,52; 8,44</t>
+          <t>3,45; 8,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP18A01-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,14</t>
+          <t>0,0; 18,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,62; 30,95</t>
+          <t>2,54; 28,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,65</t>
+          <t>0,0; 19,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,42</t>
+          <t>0,0; 21,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,85; 40,48</t>
+          <t>4,88; 38,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,7</t>
+          <t>0,0; 11,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 16,93</t>
+          <t>1,4; 17,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,09; 23,28</t>
+          <t>4,26; 23,31</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,36; 9,16</t>
+          <t>2,31; 9,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,96; 15,07</t>
+          <t>6,25; 15,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,91; 15,41</t>
+          <t>5,93; 15,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,49 +884,49 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,88; 8,33</t>
+          <t>1,36; 8,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,95; 19,41</t>
+          <t>8,06; 18,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,7; 14,17</t>
+          <t>4,74; 13,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,14</t>
+          <t>0,0; 36,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,31; 7,12</t>
+          <t>2,56; 7,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,07; 15,16</t>
+          <t>8,1; 15,14</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,21; 13,1</t>
+          <t>6,47; 12,96</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,95</t>
+          <t>0,0; 17,8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,59; 9,4</t>
+          <t>3,6; 9,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,81; 12,5</t>
+          <t>5,92; 12,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,94; 12,33</t>
+          <t>5,78; 12,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,46; 15,55</t>
+          <t>3,55; 15,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,55; 10,54</t>
+          <t>4,13; 10,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,75; 10,17</t>
+          <t>4,52; 10,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 11,27</t>
+          <t>4,75; 10,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 17,65</t>
+          <t>2,73; 18,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,28; 8,42</t>
+          <t>4,45; 8,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,0; 10,79</t>
+          <t>5,89; 10,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,26; 10,54</t>
+          <t>6,12; 10,6</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,22; 13,38</t>
+          <t>4,04; 13,25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,12; 14,5</t>
+          <t>6,34; 14,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,77; 13,36</t>
+          <t>5,73; 13,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,67; 12,59</t>
+          <t>5,02; 13,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,3</t>
+          <t>0,0; 6,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,6; 15,67</t>
+          <t>6,98; 15,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,48; 13,28</t>
+          <t>5,24; 12,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,7; 13,31</t>
+          <t>5,76; 13,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,13</t>
+          <t>0,0; 18,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,66; 13,6</t>
+          <t>7,5; 13,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,5; 11,75</t>
+          <t>6,6; 12,06</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,19; 11,53</t>
+          <t>6,09; 11,63</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 9,03</t>
+          <t>0,7; 8,46</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,03; 17,11</t>
+          <t>8,96; 16,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,87; 16,31</t>
+          <t>8,46; 16,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,97; 12,87</t>
+          <t>5,8; 12,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,2</t>
+          <t>0,0; 13,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,8; 15,73</t>
+          <t>7,9; 15,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,27; 17,08</t>
+          <t>9,08; 16,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,53; 15,69</t>
+          <t>7,63; 15,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,66; 21,75</t>
+          <t>2,68; 21,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,33; 14,87</t>
+          <t>9,29; 14,88</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,55; 15,14</t>
+          <t>9,91; 15,56</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,46; 12,82</t>
+          <t>7,72; 12,88</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 14,11</t>
+          <t>2,28; 13,85</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,76; 10,14</t>
+          <t>6,72; 10,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,08; 11,9</t>
+          <t>8,13; 11,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,03; 10,73</t>
+          <t>7,11; 10,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,93; 7,38</t>
+          <t>2,0; 7,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,55; 10,52</t>
+          <t>6,59; 10,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,98; 11,71</t>
+          <t>7,91; 11,83</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,46; 11,3</t>
+          <t>7,76; 11,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,76; 12,0</t>
+          <t>4,07; 12,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,23; 9,68</t>
+          <t>7,32; 9,84</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,6; 11,23</t>
+          <t>8,6; 11,26</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,69; 10,33</t>
+          <t>7,84; 10,52</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,45; 8,36</t>
+          <t>3,57; 8,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP18A01-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>7,52%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4,6%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10,13%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9,21%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>3,95%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>17,56%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,31%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,7</t>
+          <t>1,65; 7,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 28,43</t>
+          <t>6,78; 16,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,05</t>
+          <t>6,31; 15,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>0,0; 26,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,78</t>
+          <t>2,45; 7,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>6,16; 14,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,88; 38,92</t>
+          <t>5,43; 14,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0; 5,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,11</t>
+          <t>2,73; 7,03</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 17,54</t>
+          <t>7,43; 13,53</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,26; 23,31</t>
+          <t>6,58; 12,73</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>0,0; 12,24</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>7,75%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,31; 9,14</t>
+          <t>4,11; 10,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,25; 15,59</t>
+          <t>4,23; 10,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,93; 15,98</t>
+          <t>4,83; 10,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>2,65; 18,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 8,13</t>
+          <t>3,56; 9,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,06; 18,55</t>
+          <t>5,92; 12,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,74; 13,96</t>
+          <t>6,18; 12,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,58</t>
+          <t>2,81; 14,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 7,13</t>
+          <t>4,41; 8,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,1; 15,14</t>
+          <t>5,78; 10,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,47; 12,96</t>
+          <t>6,25; 10,45</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,8</t>
+          <t>4,24; 13,26</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>2,81%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,6; 9,01</t>
+          <t>7,33; 15,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,92; 12,92</t>
+          <t>5,62; 12,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,78; 12,27</t>
+          <t>5,56; 13,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 15,51</t>
+          <t>0,0; 17,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,13; 10,17</t>
+          <t>6,56; 14,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,52; 10,47</t>
+          <t>5,62; 13,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,75; 10,77</t>
+          <t>4,83; 12,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,73; 18,78</t>
+          <t>0,0; 6,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,45; 8,57</t>
+          <t>7,61; 13,39</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,89; 10,34</t>
+          <t>6,44; 11,9</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,12; 10,6</t>
+          <t>6,01; 11,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,04; 13,25</t>
+          <t>0,68; 8,12</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>6,17%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,34; 14,3</t>
+          <t>7,89; 15,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,73; 13,81</t>
+          <t>9,01; 17,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 13,08</t>
+          <t>7,45; 15,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,14</t>
+          <t>2,65; 19,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,98; 15,36</t>
+          <t>8,61; 16,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,24; 12,32</t>
+          <t>8,57; 15,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,76; 13,73</t>
+          <t>5,8; 13,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,66</t>
+          <t>0,0; 14,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,5; 13,81</t>
+          <t>9,48; 14,82</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,6; 12,06</t>
+          <t>9,81; 15,68</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,09; 11,63</t>
+          <t>7,49; 13,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 8,46</t>
+          <t>2,27; 12,81</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>5,39%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,96; 16,38</t>
+          <t>6,81; 10,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,46; 16,03</t>
+          <t>7,98; 11,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,8; 12,61</t>
+          <t>7,76; 11,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,9</t>
+          <t>3,52; 12,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,9; 15,74</t>
+          <t>6,59; 10,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,08; 16,95</t>
+          <t>8,26; 12,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,63; 15,72</t>
+          <t>6,86; 10,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,68; 21,9</t>
+          <t>2,08; 7,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,29; 14,88</t>
+          <t>7,2; 9,94</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,91; 15,56</t>
+          <t>8,61; 11,22</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,72; 12,88</t>
+          <t>7,91; 10,46</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,28; 13,85</t>
+          <t>3,39; 8,11</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>8,36%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>10,01%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>8,75%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>4,14%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>8,55%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>9,81%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>9,41%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>7,29%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>8,45%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>9,91%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>9,07%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>5,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>6,72; 10,19</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>8,13; 11,89</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>7,11; 10,72</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>2,0; 7,8</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>6,59; 10,31</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>7,91; 11,83</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>7,76; 11,51</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>4,07; 12,98</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>7,32; 9,84</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>8,6; 11,26</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>7,84; 10,52</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>3,57; 8,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
